--- a/Base de Datos/Subida de Datos/Generos/Genero.xlsx
+++ b/Base de Datos/Subida de Datos/Generos/Genero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omerb\OneDrive\Documents\java Cuarto\JJ\Generos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB61F077-E5F0-45B8-B293-996C1FD762D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5E7DDF-4358-4561-9ED4-04EF26ED4BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id_genero</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>TRANS FEMENINA</t>
+  </si>
+  <si>
+    <t>SIN DATO</t>
   </si>
 </sst>
 </file>
@@ -369,15 +372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,39 +388,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
